--- a/Отчет Эпизотолог/2021/04.2021 - месячный/Формулы и фокусы в ЕКСЕЛЬ.xlsx
+++ b/Отчет Эпизотолог/2021/04.2021 - месячный/Формулы и фокусы в ЕКСЕЛЬ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Boss\Отчет Эпизотолог\2021\04.2021 - месячный\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67EEDAE9-3218-40F2-827E-D75C09BA2F73}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625DEE85-074A-40EC-9B43-C9FF27F6E837}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Подсчет Повторений" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="149">
   <si>
     <t>Нобивак DHPPi</t>
   </si>
@@ -586,12 +586,30 @@
   <si>
     <t>всі інші</t>
   </si>
+  <si>
+    <t>ДОЗА</t>
+  </si>
+  <si>
+    <t>ДОЗИ</t>
+  </si>
+  <si>
+    <t>Если L = ДОЗА - Доза; Если  L=ДОЗИ - Дози;иначе - Доз</t>
+  </si>
+  <si>
+    <t>ИЛИ: =ЕСЛИ(ИЛИ(условие; другое условие); значение, если ИСТИНА; значение, если ЛОЖЬ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   =ЕСЛИ(M17=1;"Доза";"Дози")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   =ЕСЛИ(M18=ДОЗА;"Доза";"Дози")</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -726,8 +744,16 @@
       <color rgb="FF404040"/>
       <name val="Inherit"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -782,8 +808,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -806,12 +844,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -878,17 +938,38 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -896,7 +977,7 @@
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="14">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -906,6 +987,149 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1199,22 +1423,42 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{B99998FA-D6C5-4624-B451-93D769776FF9}" name="Таблица7" displayName="Таблица7" ref="E3:E13" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{B99998FA-D6C5-4624-B451-93D769776FF9}" name="Таблица7" displayName="Таблица7" ref="E3:E13" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="E3:E13" xr:uid="{00A536C5-9733-45EA-BC65-E02D83F2DA13}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{4AFA5CB5-D983-4656-8B7A-7D8243ED4811}" name="Вакцины кошек" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{4AFA5CB5-D983-4656-8B7A-7D8243ED4811}" name="Вакцины кошек" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F50A419E-2CBD-4678-8DC7-9AAB188C6245}" name="Таблица2" displayName="Таблица2" ref="G2:G12" totalsRowShown="0" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F50A419E-2CBD-4678-8DC7-9AAB188C6245}" name="Таблица2" displayName="Таблица2" ref="G2:G12" totalsRowShown="0" dataDxfId="10">
   <autoFilter ref="G2:G12" xr:uid="{950FFE22-F3C3-4708-BB61-9FF101B389FD}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{64C3AF6C-F40F-4AEF-9A67-15605782AB18}" name="Вакцины собак" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{64C3AF6C-F40F-4AEF-9A67-15605782AB18}" name="Вакцины собак" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{50B9F22D-C22C-4C73-83DE-9B885184F329}" name="Таблица9" displayName="Таблица9" ref="J17:J53" totalsRowShown="0" headerRowDxfId="1" dataDxfId="2" tableBorderDxfId="4">
+  <autoFilter ref="J17:J53" xr:uid="{8F3117D6-A2F1-4163-8A43-59B84801A9FD}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{E4D65841-90CF-4C43-93B4-A6E910C83BAE}" name="ДОЗИ" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E3943FA7-28FF-412A-AD5A-04362CAE4DDF}" name="Таблица8" displayName="Таблица8" ref="H17:H28" totalsRowShown="0" headerRowDxfId="5" dataDxfId="6" tableBorderDxfId="8">
+  <autoFilter ref="H17:H28" xr:uid="{F40C1E97-828B-47DA-95F4-9E3C8BBD8088}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{1FC6C528-6C3F-48D3-8A81-79FA07C5B271}" name="ДОЗА" dataDxfId="7"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1486,8 +1730,8 @@
   </sheetPr>
   <dimension ref="B2:C39"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1851,7 +2095,7 @@
   <dimension ref="B2:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A2" sqref="A2:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1980,8 +2224,8 @@
   </sheetPr>
   <dimension ref="B2:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1991,16 +2235,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="18.75" customHeight="1">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
     </row>
     <row r="3" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" s="14" t="s">
@@ -2183,24 +2427,24 @@
       <c r="I5" s="16"/>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2282,59 +2526,59 @@
       </c>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2448,7 +2692,7 @@
   <dimension ref="B1:G27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3035,27 +3279,32 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A609920-08F0-4E0F-98EE-63A5B58C349B}">
-  <dimension ref="A1:T36"/>
+  <sheetPr>
+    <tabColor theme="7" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:V53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.28515625" customWidth="1"/>
+    <col min="8" max="10" width="11" customWidth="1"/>
+    <col min="13" max="13" width="5.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="21">
+    <row r="1" spans="1:22" ht="21">
       <c r="A1" s="37" t="s">
         <v>131</v>
       </c>
       <c r="B1" s="37"/>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="34" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:22">
       <c r="A2" s="24">
         <v>1</v>
       </c>
@@ -3070,7 +3319,7 @@
         <v>Доза</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:22">
       <c r="A3" s="24">
         <v>2</v>
       </c>
@@ -3085,7 +3334,7 @@
         <v>Дози</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:22">
       <c r="A4" s="24">
         <v>3</v>
       </c>
@@ -3100,7 +3349,7 @@
         <v>Дози</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:22">
       <c r="A5" s="24">
         <v>4</v>
       </c>
@@ -3115,7 +3364,7 @@
         <v>Дози</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:22">
       <c r="A6" s="24">
         <v>5</v>
       </c>
@@ -3130,7 +3379,7 @@
         <v>Дози</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:22">
       <c r="A7" s="24">
         <v>6</v>
       </c>
@@ -3141,11 +3390,11 @@
         <v>6</v>
       </c>
       <c r="F7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(E7=1,E7=21,E7=31,E7=41,),"Доза","Дози")</f>
         <v>Дози</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:22">
       <c r="A8" s="24">
         <v>7</v>
       </c>
@@ -3159,11 +3408,11 @@
         <f t="shared" si="0"/>
         <v>Дози</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:22">
       <c r="A9" s="24">
         <v>8</v>
       </c>
@@ -3177,10 +3426,9 @@
         <f t="shared" si="0"/>
         <v>Дози</v>
       </c>
-      <c r="I9" s="38" t="s">
+      <c r="J9" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="J9" s="38"/>
       <c r="K9" s="38"/>
       <c r="L9" s="38"/>
       <c r="M9" s="38"/>
@@ -3191,8 +3439,9 @@
       <c r="R9" s="38"/>
       <c r="S9" s="38"/>
       <c r="T9" s="38"/>
-    </row>
-    <row r="10" spans="1:20">
+      <c r="U9" s="38"/>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" s="24">
         <v>9</v>
       </c>
@@ -3207,7 +3456,7 @@
         <v>Дози</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:22">
       <c r="A11" s="24">
         <v>10</v>
       </c>
@@ -3222,7 +3471,7 @@
         <v>Дози</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:22">
       <c r="A12" s="24">
         <v>11</v>
       </c>
@@ -3239,11 +3488,11 @@
       <c r="H12" t="s">
         <v>137</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:22">
       <c r="A13" s="24">
         <v>12</v>
       </c>
@@ -3260,11 +3509,11 @@
       <c r="H13" t="s">
         <v>139</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:22">
       <c r="A14" s="24">
         <v>13</v>
       </c>
@@ -3281,11 +3530,11 @@
       <c r="H14" t="s">
         <v>141</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:22">
       <c r="A15" s="24">
         <v>14</v>
       </c>
@@ -3299,8 +3548,21 @@
         <f t="shared" si="0"/>
         <v>Дози</v>
       </c>
-    </row>
-    <row r="16" spans="1:20">
+      <c r="L15" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="45"/>
+      <c r="T15" s="45"/>
+      <c r="U15" s="45"/>
+      <c r="V15" s="45"/>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" s="24">
         <v>15</v>
       </c>
@@ -3311,11 +3573,20 @@
         <v>15</v>
       </c>
       <c r="F16" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(E16=1,E16=21,E16=31,E16=41,),"Доза","Дози")</f>
         <v>Дози</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="M16" s="44" t="s">
+        <v>145</v>
+      </c>
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="44"/>
+      <c r="R16" s="44"/>
+      <c r="S16" s="44"/>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="24">
         <v>16</v>
       </c>
@@ -3329,8 +3600,28 @@
         <f t="shared" si="0"/>
         <v>Дози</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="H17" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="J17" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="M17" s="24">
+        <v>1</v>
+      </c>
+      <c r="N17" t="e">
+        <f>IF(M17=ДОЗА,"Доза","Дози")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="P17" t="str">
+        <f>IF(M17=1,"Доза","Дози")</f>
+        <v>Доза</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="24">
         <v>17</v>
       </c>
@@ -3344,8 +3635,28 @@
         <f t="shared" si="0"/>
         <v>Дози</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="H18" s="39">
+        <v>1</v>
+      </c>
+      <c r="J18" s="39">
+        <v>2</v>
+      </c>
+      <c r="M18" s="24">
+        <v>2</v>
+      </c>
+      <c r="N18" t="e">
+        <f>IF(OR(ДОЗА),"Доза","Доз")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="P18" t="e">
+        <f>IF(M18=ДОЗА,"Доза","Дози")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="24">
         <v>18</v>
       </c>
@@ -3359,8 +3670,28 @@
         <f t="shared" si="0"/>
         <v>Дози</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="H19" s="40">
+        <v>21</v>
+      </c>
+      <c r="J19" s="40">
+        <v>3</v>
+      </c>
+      <c r="M19" s="24">
+        <v>3</v>
+      </c>
+      <c r="N19" t="e">
+        <f>IF(OR(ДОЗА),"Доза","Дози")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="P19" t="e">
+        <f>IF(OR(M18=ДОЗА, M18=ДОЗИ),"Доза","Дози")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="24">
         <v>19</v>
       </c>
@@ -3374,8 +3705,25 @@
         <f t="shared" si="0"/>
         <v>Дози</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="H20" s="41">
+        <v>31</v>
+      </c>
+      <c r="J20" s="41">
+        <v>4</v>
+      </c>
+      <c r="M20" s="24">
+        <v>4</v>
+      </c>
+      <c r="N20" t="e">
+        <f>IF(OR(ДОЗА),"Доза","Дози")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="P20" t="e">
+        <f>OR(M20=ДОЗА,)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="24">
         <v>20</v>
       </c>
@@ -3389,8 +3737,21 @@
         <f t="shared" si="0"/>
         <v>Дози</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="H21" s="40">
+        <v>41</v>
+      </c>
+      <c r="J21" s="40">
+        <v>22</v>
+      </c>
+      <c r="M21" s="24">
+        <v>5</v>
+      </c>
+      <c r="N21" t="e">
+        <f>IF(OR(ДОЗА),"Доза","Дози")</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="24">
         <v>21</v>
       </c>
@@ -3404,8 +3765,21 @@
         <f t="shared" si="0"/>
         <v>Доза</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="H22" s="41">
+        <v>51</v>
+      </c>
+      <c r="J22" s="41">
+        <v>23</v>
+      </c>
+      <c r="M22" s="24">
+        <v>6</v>
+      </c>
+      <c r="N22" t="e">
+        <f>IF(OR(ДОЗА),"Доза","Дози")</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="24">
         <v>22</v>
       </c>
@@ -3419,8 +3793,21 @@
         <f t="shared" si="0"/>
         <v>Дози</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="H23" s="40">
+        <v>61</v>
+      </c>
+      <c r="J23" s="40">
+        <v>24</v>
+      </c>
+      <c r="M23" s="24">
+        <v>7</v>
+      </c>
+      <c r="N23" t="e">
+        <f>IF(OR(ДОЗА,),"Доза","Дози")</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="24">
         <v>23</v>
       </c>
@@ -3434,8 +3821,21 @@
         <f t="shared" si="0"/>
         <v>Дози</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="H24" s="41">
+        <v>71</v>
+      </c>
+      <c r="J24" s="41">
+        <v>32</v>
+      </c>
+      <c r="M24" s="24">
+        <v>8</v>
+      </c>
+      <c r="N24" t="e">
+        <f>IF(OR(ДОЗА),"Доза","Дози")</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="24">
         <v>24</v>
       </c>
@@ -3449,8 +3849,21 @@
         <f t="shared" si="0"/>
         <v>Дози</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="H25" s="40">
+        <v>81</v>
+      </c>
+      <c r="J25" s="40">
+        <v>33</v>
+      </c>
+      <c r="M25" s="24">
+        <v>9</v>
+      </c>
+      <c r="N25" t="e">
+        <f>IF(OR(ДОЗА),"Доза","Дози")</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="24">
         <v>25</v>
       </c>
@@ -3464,8 +3877,21 @@
         <f t="shared" si="0"/>
         <v>Дози</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="H26" s="41">
+        <v>91</v>
+      </c>
+      <c r="J26" s="41">
+        <v>34</v>
+      </c>
+      <c r="M26" s="24">
+        <v>10</v>
+      </c>
+      <c r="N26" t="e">
+        <f>IF(OR(ДОЗА),"Доза","Дози")</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" s="24">
         <v>26</v>
       </c>
@@ -3479,8 +3905,21 @@
         <f t="shared" si="0"/>
         <v>Дози</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="H27" s="40">
+        <v>101</v>
+      </c>
+      <c r="J27" s="40">
+        <v>42</v>
+      </c>
+      <c r="M27" s="24">
+        <v>11</v>
+      </c>
+      <c r="N27" t="e">
+        <f>IF(OR(ДОЗА),"Доза","Дози")</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" s="24">
         <v>27</v>
       </c>
@@ -3494,8 +3933,21 @@
         <f t="shared" si="0"/>
         <v>Дози</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="H28" s="41">
+        <v>121</v>
+      </c>
+      <c r="J28" s="41">
+        <v>43</v>
+      </c>
+      <c r="M28" s="24">
+        <v>12</v>
+      </c>
+      <c r="N28" t="e">
+        <f>IF(OR(ДОЗА),"Доза","Дози")</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" s="24">
         <v>28</v>
       </c>
@@ -3509,8 +3961,18 @@
         <f t="shared" si="0"/>
         <v>Дози</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="J29" s="40">
+        <v>44</v>
+      </c>
+      <c r="M29" s="24">
+        <v>13</v>
+      </c>
+      <c r="N29" t="e">
+        <f>IF(OR(ДОЗА),"Доза","Дози")</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" s="24">
         <v>29</v>
       </c>
@@ -3524,8 +3986,18 @@
         <f t="shared" si="0"/>
         <v>Дози</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="J30" s="41">
+        <v>52</v>
+      </c>
+      <c r="M30" s="24">
+        <v>14</v>
+      </c>
+      <c r="N30" t="e">
+        <f>IF(OR(ДОЗА),"Доза","Дози")</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" s="24">
         <v>30</v>
       </c>
@@ -3539,8 +4011,18 @@
         <f t="shared" si="0"/>
         <v>Дози</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="J31" s="40">
+        <v>53</v>
+      </c>
+      <c r="M31" s="24">
+        <v>15</v>
+      </c>
+      <c r="N31" t="e">
+        <f>IF(OR(ДОЗА),"Доза","Дози")</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" s="24">
         <v>31</v>
       </c>
@@ -3554,8 +4036,18 @@
         <f t="shared" si="0"/>
         <v>Доза</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="J32" s="41">
+        <v>54</v>
+      </c>
+      <c r="M32" s="24">
+        <v>16</v>
+      </c>
+      <c r="N32" t="e">
+        <f>IF(OR(ДОЗА),"Доза","Дози")</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="24">
         <v>32</v>
       </c>
@@ -3569,8 +4061,11 @@
         <f t="shared" si="0"/>
         <v>Дози</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="J33" s="40">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="24">
         <v>33</v>
       </c>
@@ -3584,8 +4079,11 @@
         <f t="shared" si="0"/>
         <v>Дози</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="J34" s="41">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="24">
         <v>34</v>
       </c>
@@ -3595,8 +4093,11 @@
       <c r="E35" s="24">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="J35" s="40">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="24">
         <v>35</v>
       </c>
@@ -3606,13 +4107,108 @@
       <c r="E36" s="24">
         <v>35</v>
       </c>
+      <c r="J36" s="41">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="J37" s="40">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="J38" s="41">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="J39" s="40">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="J40" s="41">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="J41" s="40">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="J42" s="41">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="J43" s="40">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="J44" s="41">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="J45" s="40">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="J46" s="41">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="J47" s="40">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="J48" s="41">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49" spans="10:10">
+      <c r="J49" s="40">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="50" spans="10:10">
+      <c r="J50" s="41">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="51" spans="10:10">
+      <c r="J51" s="40">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="52" spans="10:10">
+      <c r="J52" s="41">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="53" spans="10:10">
+      <c r="J53" s="43">
+        <v>134</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="I9:T9"/>
+    <mergeCell ref="J9:U9"/>
+    <mergeCell ref="M16:S16"/>
+    <mergeCell ref="L15:V15"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>